--- a/biology/Neurosciences/Synaptogenèse/Synaptogenèse.xlsx
+++ b/biology/Neurosciences/Synaptogenèse/Synaptogenèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Synaptogen%C3%A8se</t>
+          <t>Synaptogenèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La synaptogenèse est la formation des synapses[1]. Bien qu'elle se produise tout au long de la durée de vie d'une personne saine, une explosion de la formation des synapses se produit au cours du développement précoce du cerveau. On prend pour exemple la mise en place de la jonction neuromusculaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La synaptogenèse est la formation des synapses. Bien qu'elle se produise tout au long de la durée de vie d'une personne saine, une explosion de la formation des synapses se produit au cours du développement précoce du cerveau. On prend pour exemple la mise en place de la jonction neuromusculaire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Synaptogen%C3%A8se</t>
+          <t>Synaptogenèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étapes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout d'abord, il doit y avoir une reconnaissance par les terminaisons axonales des cellules cibles avec lesquelles la jonction doit se faire. Grâce à un gradient moléculaire et de facteurs attractifs sécrétés notamment par des cellules gliales proches, les axones sont guidés dans leurs mouvements afin de trouver leur cellule cible.
 Dans un second temps, il faut établir un contact pré-synaptique, où le filopode contacte la cellule cible. Dès lors, l'élongation dudit filipode va cesser et les autres filipodes en compétition vont se rétracter. En post-synaptique, un protéoglycane, l'agrine, permettant la différenciation de la jonction neuromusculaire mais aussi la croissance axonale du neurone, va être synthétisée puis sécrétée par le cône de croissance neuronal, ce qui permettra la fixation axone-cellule cible. Par la suite, il y aura synthèse et regroupement de divers composés de la matrice extracellulaire, reformation du cytosquelette et formation des récepteurs cholinergiques spécifiques de la jonction neuromusculaire.
